--- a/PHIẾU CVHT1.6.xlsx
+++ b/PHIẾU CVHT1.6.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>TRƯỜNG ĐẠI HỌC DUY TÂN</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t xml:space="preserve">tin </t>
+  </si>
+  <si>
+    <t>nguyent truong tin hahaha</t>
   </si>
 </sst>
 </file>
@@ -2135,7 +2138,7 @@
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2488,9 +2491,8 @@
       <c r="A21" s="33">
         <v>8</v>
       </c>
-      <c r="B21" s="33" t="str">
-        <f>IF(D21="","",VLOOKUP(D21,[1]CHE101O!C3:D108,2,0))</f>
-        <v/>
+      <c r="B21" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="C21" s="34" t="str">
         <f>IF(D21="","",VLOOKUP(D21,[1]CHE101O!C3:E108,3,0))</f>
